--- a/biology/Botanique/Vuilleminiaceae/Vuilleminiaceae.xlsx
+++ b/biology/Botanique/Vuilleminiaceae/Vuilleminiaceae.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les Corticiaceae sont une famille de champignons Agaricomycetes de l'ordre des Corticiales. Le nom Corticiaceae est encore parfois utilisé dans ce sens large (sensu lato)[1], mais il a généralement été remplacé par le terme champignons corticioïdes ou résupinés[2]. Cette famille incluait autrefois  presque tous les champignon dit corticioïde, ou en forme de croûte, qu'ils soient liés entre eux ou non, et comme telle, ce fut une famille artificielle mal définie.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les Corticiaceae sont une famille de champignons Agaricomycetes de l'ordre des Corticiales. Le nom Corticiaceae est encore parfois utilisé dans ce sens large (sensu lato), mais il a généralement été remplacé par le terme champignons corticioïdes ou résupinés. Cette famille incluait autrefois  presque tous les champignon dit corticioïde, ou en forme de croûte, qu'ils soient liés entre eux ou non, et comme telle, ce fut une famille artificielle mal définie.
 </t>
         </is>
       </c>
@@ -513,19 +525,16 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Historique
-C'est en 1910 que le mycologue allemand Wilhelm Franz Gustav Herter publié le premier sur les Corticiaceae avec l'intention d'accueillir les espèces d'hyménomycètes qui produisent des sporophores  résupinés[note 1], et ayant des hyménophores plus ou moins lisses[note 2].
+          <t>Historique</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">C'est en 1910 que le mycologue allemand Wilhelm Franz Gustav Herter publié le premier sur les Corticiaceae avec l'intention d'accueillir les espèces d'hyménomycètes qui produisent des sporophores  résupinés[note 1], et ayant des hyménophores plus ou moins lisses[note 2].
 Depuis, cette définition vague et superficielle a couvert une large gamme de champignons sans rapport entre eux, la famille des Corticiaceae qui, largement adoptées a été largement reconnu comme un regroupement artificiel. En effet, dans une analyse de la famille en 1964, on a considéré  les  Corticiaceae comme un bon exemple de la façon dont peut être traité un taxon artificiel extrême[note 3],
-[3].
-Dans ce sens élargi, les limites de la famille Corticiaceae n'ont donc jamais été clairement définies. Elle a parfois été séparée de celle des Stereaceae, une famille dans laquelle les sporophores ont tendance à former des hymenophores[note 4],[4], mais souvent ces deux familles étaient artificiellement unies. Dans ce sens unifié, les Corticiaceae vont certainement inclure les genres et espèces traitées selon les normes[note 5], où il a été reconnu que la famille n'était pas un taxon naturel, mais un assemblage de genres avec des habitats similaires[5].Si l'on avait ajouté les espèces non européennes, cela aurait signifié que les Corticiaceae allaient éventuellement s'élargir pour inclure les 200 nouveaux genres du monde entier[6].
-Classification classique
-Le nom Corticiaceae est encore parfois utilisé dans ce sens large (sensu lato), mais il a généralement été remplacé par le terme champignons corticioïdes
-[7].
-La famille contient environ 27 genres et plus d'une centaine d'espèces[8].
-Nom scientifique
-Paxilus involutus ((Batsch) Fries 1838[9])
-Classification phylogénétique
-La recherche moléculaire, basée sur les analyses cladistiques des séquences d'ADN, a limité la famille des Corticiaceae dans un sens strict (sensus stricto) à un groupe relativement restreint de genres au sein des Corticiales. La famille, cependant, demeure indéfinie. En 2007, on l'a traitée comme synonyme d'un ordre[10], mais la résurrection des familles Punctulariaceae et Vuilleminiaceae[11] au sein des Corticiales qui ont maintenant quittés les Corticiaceae qui reste malgré tout un taxon poubelle pour le reste des genres.
+.
+Dans ce sens élargi, les limites de la famille Corticiaceae n'ont donc jamais été clairement définies. Elle a parfois été séparée de celle des Stereaceae, une famille dans laquelle les sporophores ont tendance à former des hymenophores[note 4] mais souvent ces deux familles étaient artificiellement unies. Dans ce sens unifié, les Corticiaceae vont certainement inclure les genres et espèces traitées selon les normes[note 5], où il a été reconnu que la famille n'était pas un taxon naturel, mais un assemblage de genres avec des habitats similaires.Si l'on avait ajouté les espèces non européennes, cela aurait signifié que les Corticiaceae allaient éventuellement s'élargir pour inclure les 200 nouveaux genres du monde entier.
 </t>
         </is>
       </c>
@@ -551,14 +560,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Habitat</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">La majorité des espèces des Corticiaceae sont saprotrophes du bois pourri, formant  des basidiocarpes typiquement corticioïdes sur la face inférieure des branches mortes toujours attachées et moins fréquemment sur le bois au sol. Plusieurs espèces sont des parasites des lichens, de graminées ou autres plantes. Giulia tenuis est une pycnidiale anamorphe croissans sur le bambou[12].
-L'anomalie de l'espèce d'agaric, Marchandiomphalina foliacea, est lichénisées[13].
-Ils ont une distribution cosmopolite[14].
+          <t>Classification classique</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le nom Corticiaceae est encore parfois utilisé dans ce sens large (sensu lato), mais il a généralement été remplacé par le terme champignons corticioïdes
+.
+La famille contient environ 27 genres et plus d'une centaine d'espèces.
 </t>
         </is>
       </c>
@@ -584,10 +599,121 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Nom scientifique</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Paxilus involutus ((Batsch) Fries 1838)
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Systématique</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Classification phylogénétique</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La recherche moléculaire, basée sur les analyses cladistiques des séquences d'ADN, a limité la famille des Corticiaceae dans un sens strict (sensus stricto) à un groupe relativement restreint de genres au sein des Corticiales. La famille, cependant, demeure indéfinie. En 2007, on l'a traitée comme synonyme d'un ordre, mais la résurrection des familles Punctulariaceae et Vuilleminiaceae au sein des Corticiales qui ont maintenant quittés les Corticiaceae qui reste malgré tout un taxon poubelle pour le reste des genres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Habitat</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">La majorité des espèces des Corticiaceae sont saprotrophes du bois pourri, formant  des basidiocarpes typiquement corticioïdes sur la face inférieure des branches mortes toujours attachées et moins fréquemment sur le bois au sol. Plusieurs espèces sont des parasites des lichens, de graminées ou autres plantes. Giulia tenuis est une pycnidiale anamorphe croissans sur le bambou.
+L'anomalie de l'espèce d'agaric, Marchandiomphalina foliacea, est lichénisées.
+Ils ont une distribution cosmopolite.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Vuilleminiaceae</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
           <t>Taxinomie de la famille des Corticiaceae</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t xml:space="preserve">
 genre Acantholichen
